--- a/classfiers/greedy/svm/smote/greedy-svm-sigmoid-smote-results.xlsx
+++ b/classfiers/greedy/svm/smote/greedy-svm-sigmoid-smote-results.xlsx
@@ -467,16 +467,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.7210031347962382</v>
+        <v>0.6979166666666666</v>
       </c>
       <c r="C2" t="n">
-        <v>1</v>
+        <v>0.8701298701298701</v>
       </c>
       <c r="D2" t="n">
-        <v>0.8378870673952641</v>
+        <v>0.7745664739884393</v>
       </c>
       <c r="E2" t="n">
-        <v>0.7277693761814744</v>
+        <v>0.6378066378066378</v>
       </c>
     </row>
     <row r="3">
@@ -486,16 +486,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.8394160583941606</v>
+        <v>0.8794642857142857</v>
       </c>
       <c r="C3" t="n">
-        <v>1</v>
+        <v>0.8528138528138528</v>
       </c>
       <c r="D3" t="n">
-        <v>0.9126984126984127</v>
+        <v>0.8659340659340659</v>
       </c>
       <c r="E3" t="n">
-        <v>0.842930056710775</v>
+        <v>0.9007140046101085</v>
       </c>
     </row>
     <row r="4">
@@ -505,16 +505,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.8041958041958042</v>
+        <v>0.7903225806451613</v>
       </c>
       <c r="C4" t="n">
-        <v>1</v>
+        <v>0.8484848484848485</v>
       </c>
       <c r="D4" t="n">
-        <v>0.8914728682170543</v>
+        <v>0.8183716075156576</v>
       </c>
       <c r="E4" t="n">
-        <v>0.8519470699432893</v>
+        <v>0.8323494687131051</v>
       </c>
     </row>
     <row r="5">
@@ -524,16 +524,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.7142857142857143</v>
+        <v>0.5844875346260388</v>
       </c>
       <c r="C5" t="n">
-        <v>1</v>
+        <v>0.9173913043478261</v>
       </c>
       <c r="D5" t="n">
-        <v>0.8333333333333333</v>
+        <v>0.7140439932318104</v>
       </c>
       <c r="E5" t="n">
-        <v>0.7419470699432892</v>
+        <v>0.4064558629776022</v>
       </c>
     </row>
     <row r="6">
@@ -543,16 +543,16 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.8243727598566308</v>
+        <v>0.5125628140703518</v>
       </c>
       <c r="C6" t="n">
-        <v>1</v>
+        <v>0.8831168831168831</v>
       </c>
       <c r="D6" t="n">
-        <v>0.9037328094302554</v>
+        <v>0.6486486486486486</v>
       </c>
       <c r="E6" t="n">
-        <v>0.9077315689981096</v>
+        <v>0.2202710333145116</v>
       </c>
     </row>
     <row r="7">
@@ -562,16 +562,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.7806546943057097</v>
+        <v>0.6929507763445008</v>
       </c>
       <c r="C7" t="n">
-        <v>1</v>
+        <v>0.8743873517786561</v>
       </c>
       <c r="D7" t="n">
-        <v>0.8758248982148638</v>
+        <v>0.7643129578637244</v>
       </c>
       <c r="E7" t="n">
-        <v>0.8144650283553876</v>
+        <v>0.599519401484393</v>
       </c>
     </row>
   </sheetData>

--- a/classfiers/greedy/svm/smote/greedy-svm-sigmoid-smote-results.xlsx
+++ b/classfiers/greedy/svm/smote/greedy-svm-sigmoid-smote-results.xlsx
@@ -467,16 +467,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.6979166666666666</v>
+        <v>0.6680672268907563</v>
       </c>
       <c r="C2" t="n">
-        <v>0.8701298701298701</v>
+        <v>0.7607655502392344</v>
       </c>
       <c r="D2" t="n">
-        <v>0.7745664739884393</v>
+        <v>0.7114093959731543</v>
       </c>
       <c r="E2" t="n">
-        <v>0.6378066378066378</v>
+        <v>0.6291866028708134</v>
       </c>
     </row>
     <row r="3">
@@ -486,16 +486,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.8794642857142857</v>
+        <v>0.8411214953271028</v>
       </c>
       <c r="C3" t="n">
-        <v>0.8528138528138528</v>
+        <v>0.861244019138756</v>
       </c>
       <c r="D3" t="n">
-        <v>0.8659340659340659</v>
+        <v>0.851063829787234</v>
       </c>
       <c r="E3" t="n">
-        <v>0.9007140046101085</v>
+        <v>0.8622920938710412</v>
       </c>
     </row>
     <row r="4">
@@ -505,16 +505,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.7903225806451613</v>
+        <v>0.6928838951310862</v>
       </c>
       <c r="C4" t="n">
-        <v>0.8484848484848485</v>
+        <v>0.8809523809523809</v>
       </c>
       <c r="D4" t="n">
-        <v>0.8183716075156576</v>
+        <v>0.7756813417190774</v>
       </c>
       <c r="E4" t="n">
-        <v>0.8323494687131051</v>
+        <v>0.7090225563909774</v>
       </c>
     </row>
     <row r="5">
@@ -524,16 +524,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.5844875346260388</v>
+        <v>0.5357142857142857</v>
       </c>
       <c r="C5" t="n">
-        <v>0.9173913043478261</v>
+        <v>0.9285714285714286</v>
       </c>
       <c r="D5" t="n">
-        <v>0.7140439932318104</v>
+        <v>0.6794425087108014</v>
       </c>
       <c r="E5" t="n">
-        <v>0.4064558629776022</v>
+        <v>0.272863978127136</v>
       </c>
     </row>
     <row r="6">
@@ -543,16 +543,16 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.5125628140703518</v>
+        <v>0.52</v>
       </c>
       <c r="C6" t="n">
-        <v>0.8831168831168831</v>
+        <v>0.9330143540669856</v>
       </c>
       <c r="D6" t="n">
-        <v>0.6486486486486486</v>
+        <v>0.6678082191780822</v>
       </c>
       <c r="E6" t="n">
-        <v>0.2202710333145116</v>
+        <v>0.182459192784048</v>
       </c>
     </row>
     <row r="7">
@@ -562,16 +562,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.6929507763445008</v>
+        <v>0.6515573806126461</v>
       </c>
       <c r="C7" t="n">
-        <v>0.8743873517786561</v>
+        <v>0.8729095465937571</v>
       </c>
       <c r="D7" t="n">
-        <v>0.7643129578637244</v>
+        <v>0.7370810590736699</v>
       </c>
       <c r="E7" t="n">
-        <v>0.599519401484393</v>
+        <v>0.5311648848088032</v>
       </c>
     </row>
   </sheetData>
